--- a/code/results/storm_j20_7200/compact_reformulation_results_j20.xlsx
+++ b/code/results/storm_j20_7200/compact_reformulation_results_j20.xlsx
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A527" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J553" activeCellId="0" sqref="J553"/>
+      <selection pane="topLeft" activeCell="I555" activeCellId="0" sqref="I555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12844,8 +12844,8 @@
         <v>555</v>
       </c>
       <c r="I550" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>464</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>481</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12871,8 +12871,8 @@
         <v>557</v>
       </c>
       <c r="I551" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.0289365671641791</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.0283249097472924</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12898,8 +12898,8 @@
         <v>559</v>
       </c>
       <c r="I552" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.215416666666667</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.214958904109589</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12925,8 +12925,8 @@
         <v>561</v>
       </c>
       <c r="I553" s="1" t="n">
-        <f aca="false">AVERAGE(F20:F555)</f>
-        <v>1102.67827985075</v>
+        <f aca="false">AVERAGE(F2:F555)</f>
+        <v>1081.31873104693</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>562</v>
@@ -12955,8 +12955,8 @@
         <v>564</v>
       </c>
       <c r="I554" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;7200")</f>
-        <v>156.54155387931</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;7200")</f>
+        <v>152.703316008316</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12982,8 +12982,8 @@
         <v>566</v>
       </c>
       <c r="I555" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"=0",C20:C555)</f>
-        <v>24.7952586206897</v>
+        <f aca="false">AVERAGEIF(E2:E555,"=0",C2:C555)</f>
+        <v>24.7006237006237</v>
       </c>
     </row>
   </sheetData>
@@ -13005,7 +13005,7 @@
   <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A541" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J553" activeCellId="0" sqref="J553"/>
+      <selection pane="topLeft" activeCell="I550" activeCellId="0" sqref="I550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24022,8 +24022,8 @@
         <v>555</v>
       </c>
       <c r="I550" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>451</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>468</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24049,8 +24049,8 @@
         <v>557</v>
       </c>
       <c r="I551" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.0293003731343284</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.0286498194945848</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24076,8 +24076,8 @@
         <v>559</v>
       </c>
       <c r="I552" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.184764705882353</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.184558139534884</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24103,8 +24103,8 @@
         <v>561</v>
       </c>
       <c r="I553" s="1" t="n">
-        <f aca="false">AVERAGE(F20:F555)</f>
-        <v>1279.31665485075</v>
+        <f aca="false">AVERAGE(F2:F555)</f>
+        <v>1254.7090866426</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>562</v>
@@ -24133,8 +24133,8 @@
         <v>564</v>
       </c>
       <c r="I554" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;7200")</f>
-        <v>163.443257206209</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;7200")</f>
+        <v>162.19658974359</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24160,8 +24160,8 @@
         <v>566</v>
       </c>
       <c r="I555" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"=0",C20:C555)</f>
-        <v>37.6873614190687</v>
+        <f aca="false">AVERAGEIF(E2:E555,"=0",C2:C555)</f>
+        <v>37.542735042735</v>
       </c>
     </row>
   </sheetData>
@@ -24183,7 +24183,7 @@
   <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A533" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J553" activeCellId="0" sqref="J553"/>
+      <selection pane="topLeft" activeCell="I554" activeCellId="0" sqref="I554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35200,8 +35200,8 @@
         <v>555</v>
       </c>
       <c r="I550" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>442</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>459</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35227,8 +35227,8 @@
         <v>557</v>
       </c>
       <c r="I551" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.0394440298507463</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.0385162454873646</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35254,8 +35254,8 @@
         <v>559</v>
       </c>
       <c r="I552" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.224914893617021</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.22461052631579</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35281,8 +35281,8 @@
         <v>561</v>
       </c>
       <c r="I553" s="1" t="n">
-        <f aca="false">AVERAGE(F20:F555)</f>
-        <v>1430.91752611941</v>
+        <f aca="false">AVERAGE(F2:F555)</f>
+        <v>1407.1044765343</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>562</v>
@@ -35311,8 +35311,8 @@
         <v>564</v>
       </c>
       <c r="I554" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;7200")</f>
-        <v>204.005866515837</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;7200")</f>
+        <v>208.136525054466</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35338,8 +35338,8 @@
         <v>566</v>
       </c>
       <c r="I555" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"=0",C20:C555)</f>
-        <v>38.3914027149321</v>
+        <f aca="false">AVERAGEIF(E2:E555,"=0",C2:C555)</f>
+        <v>38.2461873638344</v>
       </c>
     </row>
   </sheetData>
@@ -35361,7 +35361,7 @@
   <dimension ref="A1:J555"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A531" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J553" activeCellId="0" sqref="J553"/>
+      <selection pane="topLeft" activeCell="I554" activeCellId="0" sqref="I554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -46380,8 +46380,8 @@
         <v>555</v>
       </c>
       <c r="I550" s="1" t="n">
-        <f aca="false">COUNTIF(E20:E555,0)</f>
-        <v>440</v>
+        <f aca="false">COUNTIF(E2:E555,0)</f>
+        <v>457</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46407,8 +46407,8 @@
         <v>557</v>
       </c>
       <c r="I551" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"&lt;&gt;*nan")</f>
-        <v>0.0410914179104477</v>
+        <f aca="false">AVERAGEIF(E2:E555,"&lt;&gt;*nan")</f>
+        <v>0.0402472924187726</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46434,8 +46434,8 @@
         <v>559</v>
       </c>
       <c r="I552" s="1" t="n">
-        <f aca="false">AVERAGEIFS(E20:E555,E20:E555,"&lt;&gt;*nan",E20:E555,"&lt;&gt;0")</f>
-        <v>0.229427083333333</v>
+        <f aca="false">AVERAGEIFS(E2:E555,E2:E555,"&lt;&gt;*nan",E2:E555,"&lt;&gt;0")</f>
+        <v>0.229865979381443</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46461,8 +46461,8 @@
         <v>561</v>
       </c>
       <c r="I553" s="1" t="n">
-        <f aca="false">AVERAGE(F20:F555)</f>
-        <v>1539.83132835821</v>
+        <f aca="false">AVERAGE(F2:F555)</f>
+        <v>1525.47370938628</v>
       </c>
       <c r="J553" s="1" t="s">
         <v>562</v>
@@ -46491,8 +46491,8 @@
         <v>564</v>
       </c>
       <c r="I554" s="1" t="n">
-        <f aca="false">AVERAGEIF(F20:F555,"&lt;7200")</f>
-        <v>304.882459090909</v>
+        <f aca="false">AVERAGEIF(F2:F555,"&lt;7200")</f>
+        <v>321.030892778993</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -46518,8 +46518,8 @@
         <v>566</v>
       </c>
       <c r="I555" s="1" t="n">
-        <f aca="false">AVERAGEIF(E20:E555,"=0",C20:C555)</f>
-        <v>38.3409090909091</v>
+        <f aca="false">AVERAGEIF(E2:E555,"=0",C2:C555)</f>
+        <v>38.1969365426696</v>
       </c>
     </row>
   </sheetData>
